--- a/QQ消息格式.xlsx
+++ b/QQ消息格式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQRecovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94085-098F-4247-AF48-6256BCED7296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985DEBC-000B-41A8-8F0D-46A5D842B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,22 @@
   </si>
   <si>
     <t>卡片消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊语音通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话时长 00:29|0|3|1        [0x16]文本|unknown|unknown|unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊通话异常结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话异常结束|0|3|1        [0x16]文本|unknown|unknown|unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1194,27 +1210,42 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="I14">
+        <v>-2009</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="I15">
-        <v>-2000</v>
+        <v>-1001</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -1223,44 +1254,33 @@
         <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I16">
-        <v>-1035</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
       <c r="I17">
-        <v>-2002</v>
+        <v>-2000</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1269,21 +1289,21 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I18">
-        <v>-2022</v>
+        <v>-1035</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>51</v>
@@ -1292,21 +1312,21 @@
         <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-8018</v>
+        <v>-2002</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>51</v>
@@ -1318,21 +1338,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-5040</v>
+        <v>-2022</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -1344,178 +1361,184 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-5020</v>
+        <v>-8018</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="M21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>-5040</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>-5020</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N23" t="s">
         <v>48</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I22">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I24">
         <v>-5023</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J24" t="s">
         <v>60</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N24" t="s">
         <v>48</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I24">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I26">
         <v>-1049</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J26" t="s">
         <v>62</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K26" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N26" t="s">
         <v>47</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I27">
         <v>-2017</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>65</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N27" t="s">
         <v>47</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I26">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I28">
         <v>-2025</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J28" t="s">
         <v>98</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K28" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N28" t="s">
         <v>48</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I27">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I29">
         <v>-2011</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J29" t="s">
         <v>69</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K29" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I28">
-        <v>-5008</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I29">
-        <v>-2007</v>
-      </c>
-      <c r="J29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" t="s">
-        <v>66</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>59</v>
@@ -1524,41 +1547,61 @@
         <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I30">
+        <v>-5008</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>-2007</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I32">
         <v>-2025</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>78</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K32" t="s">
         <v>66</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="I32">
-        <v>-2060</v>
-      </c>
-      <c r="J32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" t="s">
-        <v>105</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>59</v>
@@ -1567,29 +1610,52 @@
         <v>48</v>
       </c>
       <c r="P32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>-2060</v>
+      </c>
+      <c r="J34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I33">
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I35">
         <v>-7010</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J35" t="s">
         <v>85</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K35" t="s">
         <v>37</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L35" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N35" t="s">
         <v>48</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P35" t="s">
         <v>85</v>
       </c>
     </row>

--- a/QQ消息格式.xlsx
+++ b/QQ消息格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985DEBC-000B-41A8-8F0D-46A5D842B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCEA719-D57F-4A27-A113-A9E8A7000D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>通话异常结束|0|3|1        [0x16]文本|unknown|unknown|unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊戳一戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"pokeemoId":11,"pokeemoPressCount":1,"summary":"平底锅","msg":"[平底锅]x1","isread":true} </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1260,44 +1268,46 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="I16">
+        <v>-5018</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>-2000</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>44</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I18">
-        <v>-1035</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
@@ -1317,16 +1327,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>-2002</v>
+        <v>-1035</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>51</v>
@@ -1335,21 +1345,21 @@
         <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-2022</v>
+        <v>-2002</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -1363,16 +1373,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-8018</v>
+        <v>-2022</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>51</v>
@@ -1385,20 +1395,17 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
       <c r="I22">
-        <v>-5040</v>
+        <v>-8018</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>51</v>
@@ -1411,88 +1418,91 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
       <c r="I23">
-        <v>-5020</v>
+        <v>-5040</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="M23" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I24">
-        <v>-5023</v>
+        <v>-5020</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
         <v>48</v>
       </c>
       <c r="P24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>-5023</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I26">
-        <v>-1049</v>
-      </c>
-      <c r="J26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" t="s">
-        <v>83</v>
-      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I27">
-        <v>-2017</v>
+        <v>-1049</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>51</v>
@@ -1506,33 +1516,33 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I28">
-        <v>-2025</v>
+        <v>-2017</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I29">
-        <v>-2011</v>
+        <v>-2025</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -1552,53 +1562,56 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I30">
-        <v>-5008</v>
+        <v>-2011</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I31">
-        <v>-2007</v>
+        <v>-5008</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I32">
-        <v>-2025</v>
+        <v>-2007</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
         <v>66</v>
@@ -1613,32 +1626,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I34">
-        <v>-2060</v>
-      </c>
-      <c r="J34" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s">
-        <v>105</v>
-      </c>
-      <c r="M34" s="2" t="s">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>-2025</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N33" t="s">
         <v>48</v>
       </c>
-      <c r="P34" t="s">
-        <v>85</v>
+      <c r="P33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I35">
-        <v>-7010</v>
+        <v>-2060</v>
       </c>
       <c r="J35" t="s">
         <v>85</v>
@@ -1647,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>59</v>
@@ -1656,6 +1666,29 @@
         <v>48</v>
       </c>
       <c r="P35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>-7010</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" t="s">
         <v>85</v>
       </c>
     </row>

--- a/QQ消息格式.xlsx
+++ b/QQ消息格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCEA719-D57F-4A27-A113-A9E8A7000D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E949280-4617-46DE-A238-5C5FF7676BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>私聊语音通话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通话时长 00:29|0|3|1        [0x16]文本|unknown|unknown|unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +471,18 @@
   </si>
   <si>
     <t xml:space="preserve">{"pokeemoId":11,"pokeemoPressCount":1,"summary":"平底锅","msg":"[平底锅]x1","isread":true} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊戳一戳2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'interactType': 1, 'isPlayed': True, 'msg': '[戳一戳]', 'doubltHit': 0, 'subId': -1, 'name': '', 'minVersion': '', 'strength': 0, 'flag': 0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊语音/视频通话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1222,13 +1230,13 @@
         <v>-2009</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>51</v>
@@ -1247,13 +1255,13 @@
         <v>-1001</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -1269,16 +1277,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="I16">
-        <v>-5018</v>
+        <v>-5012</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>51</v>
@@ -1293,44 +1301,46 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="I17">
+        <v>-5018</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>-2000</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I19">
-        <v>-1035</v>
-      </c>
-      <c r="J19" t="s">
-        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
@@ -1350,16 +1360,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I20">
-        <v>-2002</v>
+        <v>-1035</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -1368,21 +1378,21 @@
         <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I21">
-        <v>-2022</v>
+        <v>-2002</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>51</v>
@@ -1396,16 +1406,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I22">
-        <v>-8018</v>
+        <v>-2022</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
         <v>52</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>51</v>
@@ -1418,20 +1428,17 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
       <c r="I23">
-        <v>-5040</v>
+        <v>-8018</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>51</v>
@@ -1444,88 +1451,91 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
       <c r="I24">
-        <v>-5020</v>
+        <v>-5040</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="M24" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I25">
-        <v>-5023</v>
+        <v>-5020</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
         <v>48</v>
       </c>
       <c r="P25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>-5023</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I27">
-        <v>-1049</v>
-      </c>
-      <c r="J27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" t="s">
-        <v>83</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I28">
-        <v>-2017</v>
+        <v>-1049</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>51</v>
@@ -1539,33 +1549,33 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I29">
-        <v>-2025</v>
+        <v>-2017</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I30">
-        <v>-2011</v>
+        <v>-2025</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -1585,53 +1595,56 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I31">
-        <v>-5008</v>
+        <v>-2011</v>
       </c>
       <c r="J31" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I32">
-        <v>-2007</v>
+        <v>-5008</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I33">
-        <v>-2025</v>
+        <v>-2007</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
         <v>66</v>
@@ -1646,32 +1659,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I35">
-        <v>-2060</v>
-      </c>
-      <c r="J35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="2" t="s">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>-2025</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N34" t="s">
         <v>48</v>
       </c>
-      <c r="P35" t="s">
-        <v>85</v>
+      <c r="P34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I36">
-        <v>-7010</v>
+        <v>-2060</v>
       </c>
       <c r="J36" t="s">
         <v>85</v>
@@ -1680,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>59</v>
@@ -1689,6 +1699,29 @@
         <v>48</v>
       </c>
       <c r="P36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>-7010</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" t="s">
         <v>85</v>
       </c>
     </row>

--- a/QQ消息格式.xlsx
+++ b/QQ消息格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E949280-4617-46DE-A238-5C5FF7676BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE8A0A-DC3A-46DC-97C5-35DF4276B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="870" windowWidth="21090" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="600" windowWidth="26115" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
